--- a/result2.xlsx
+++ b/result2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\source\repos\opengl_binary_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F603B2DC-EA18-46F9-B6E6-9B3AEF4CBBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C94D031-88A4-4F47-AD43-B14D8F2FCAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E054A0A2-A1EC-4722-9316-F16F8EA0B6F8}"/>
   </bookViews>
@@ -3113,6 +3113,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>二分探索木</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -3121,7 +3124,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -3181,6 +3184,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>AVL木</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3193,12 +3199,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3249,6 +3253,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>完全二分木</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3257,15 +3264,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3556,6 +3561,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17931517935258084"/>
+          <c:y val="9.2592592592592587E-2"/>
+          <c:w val="0.16912926509186352"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6935,7 +6981,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
